--- a/biology/Zoologie/Échiquier_des_Almoravides/Échiquier_des_Almoravides.xlsx
+++ b/biology/Zoologie/Échiquier_des_Almoravides/Échiquier_des_Almoravides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_des_Almoravides</t>
+          <t>Échiquier_des_Almoravides</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melanargia ines
 L'Échiquier des Almoravides (Melanargia ines) est une espèce d'insectes lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Melanargia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_des_Almoravides</t>
+          <t>Échiquier_des_Almoravides</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,50 +524,124 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Melanargia galathea a été nommé par Johann Centurius von Hoffmannseggen 1804.
-Noms vernaculaires
-L'Échiquier des Almoravides se nomme Spanish Marbled White en anglais et  Medioluto Inés  en espagnol[1].
-Sous-espèces
-Melanargia ines ines qui présente différentes formes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melanargia galathea a été nommé par Johann Centurius von Hoffmannseggen 1804.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Échiquier_des_Almoravides</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Almoravides</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échiquier des Almoravides se nomme Spanish Marbled White en anglais et  Medioluto Inés  en espagnol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Échiquier_des_Almoravides</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Almoravides</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Melanargia ines ines qui présente différentes formes :
 Melanargia ines f. hannibal Stauder, 1913 ; en Algérie à Biskra, El Kantara et Constantine.
 Melanargia ines var. fathme Wagner, 1913 ; en Tunisie.
 Melanargia ines ab. completa Oberthür, 1915 ; en Algérie à Beni-Ounif.
 Melanargia ines f. minima Houlbert, 1923 ; en Espagne
-Melanargia ines f. semi-reducta Houlbert, 1923 ;  en Algérie et Tunisie[1]..
+Melanargia ines f. semi-reducta Houlbert, 1923 ;  en Algérie et Tunisie..
 Melanargia ines arahoui Tarrier, 1995 ; à Tizi-n-Taghatine au Maroc.
 Melanargia ines colossea Rothschild, 1917  au Maroc à Rabat.
 Melanargia ines henrike Eitschberger, 1972 ; à Algeciras en Espagne.
-Melanargia ines jahandiezi Oberthür, 1922 ; dans le Vallée de la Reraya au Maroc[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89chiquier_des_Almoravides</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Almoravides</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Melanargia ines jahandiezi Oberthür, 1922 ; dans le Vallée de la Reraya au Maroc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Échiquier_des_Almoravides</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Almoravides</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon de taille moyenne qui présente aux antérieures un damier noir et blanc et un ocelle à l'apex et aux postérieures uniquement les dessins des contours de damier et une ligne d'ocelles.
 Le revers dessine en noir les limites des damiers et les ocelles de l'apex des antérieures et les ocelles en ligne aux postérieures sont bien visible de couleur ocre pupillé de bleu clair et cerclé de deux lignes blanche doublée de noir.
@@ -563,82 +649,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89chiquier_des_Almoravides</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Almoravides</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-La période de vol s'étend de fin mars à fin juin en une seule génération[3].
-Plantes hôtes
-La chenille se nourrit de graminées, en particulier Brachypodium pinnatum[1],[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89chiquier_des_Almoravides</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Almoravides</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Échiquier des Almoravides est présent en Afrique-du-Nord, Maroc, Algérie, Tunisie et Libye et dans tout le Portugal et l'Espagne (sauf la zone la plus au nord) [1].
-Biotope
-Il réside dans des lieux herbus secs.
-Protection
-Il est peu menacé au Maroc[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_des_Almoravides</t>
+          <t>Échiquier_des_Almoravides</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,10 +670,193 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période de vol s'étend de fin mars à fin juin en une seule génération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Échiquier_des_Almoravides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Almoravides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit de graminées, en particulier Brachypodium pinnatum,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Échiquier_des_Almoravides</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Almoravides</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échiquier des Almoravides est présent en Afrique-du-Nord, Maroc, Algérie, Tunisie et Libye et dans tout le Portugal et l'Espagne (sauf la zone la plus au nord) .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Échiquier_des_Almoravides</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Almoravides</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des lieux herbus secs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Échiquier_des_Almoravides</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Almoravides</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est peu menacé au Maroc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Échiquier_des_Almoravides</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Almoravides</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Espèces ressemblantes en Europe occidentale et au Maghreb</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Melanargia arge - Échiquier d'Italie, en Italie.
 Melanargia galathea - Demi-deuil
